--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="134">
   <si>
     <t>IGEM</t>
   </si>
@@ -379,27 +379,15 @@
     <t>Asistencia 6</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>Burgos Vazquez Carlo Antonio</t>
   </si>
   <si>
-    <t>torneo</t>
-  </si>
-  <si>
     <t>Hernandez Cruz Liliana Soledad</t>
   </si>
   <si>
     <t xml:space="preserve">Lopez Torres Karen Isabel </t>
   </si>
   <si>
-    <t>pasaste</t>
-  </si>
-  <si>
     <t>Barron Gonzalez Rodrigo Sarid</t>
   </si>
   <si>
@@ -409,20 +397,44 @@
     <t>1 incompleto</t>
   </si>
   <si>
-    <t>Arancibia Garcia Luis Angel</t>
-  </si>
-  <si>
     <t>Caballero Garatachea Estefania</t>
   </si>
   <si>
     <t>Cortes Soto Tanaheiry</t>
+  </si>
+  <si>
+    <t>Campos Bautista Xochitl Carolina</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Asistencia 7</t>
+  </si>
+  <si>
+    <t>Asistencia 8</t>
+  </si>
+  <si>
+    <t>Asistencia 9</t>
+  </si>
+  <si>
+    <t>Asistencia 10</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>REPROBADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,8 +442,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +469,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -463,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -485,6 +516,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,1872 +823,2039 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="12" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="O1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>121130001</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="13">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" s="17"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>141130180</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="13">
+        <v>3</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>121130311</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="13">
+        <v>6</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>141130042</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>131130429</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="13">
+        <v>4</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>131130432</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="13">
+        <v>4</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>141130045</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="13">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>121130325</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="13">
+        <v>6</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>141130117</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="13">
+        <v>3</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>141130050</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="13">
+        <v>3</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>131130501</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="13">
+        <v>4</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>121130336</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>141130053</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="13">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>141130159</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="13">
+        <v>3</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>131130460</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="13">
+        <v>4</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>121130532</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="13">
+        <v>6</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>111130338</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="13">
+        <v>8</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>141130061</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="13">
+        <v>3</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>141130064</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="13">
+        <v>3</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>141130164</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="13">
+        <v>3</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>141130067</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="13">
+        <v>3</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>121130032</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="13">
+        <v>7</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>121130038</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="13">
+        <v>7</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>141130074</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="13">
+        <v>3</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>121130478</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D26" s="13">
+        <v>6</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>151130115</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>111130269</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="13">
+        <v>8</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>131130421</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="6">
+        <v>4</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="I29" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>141130006</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="I30" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>131130271</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="6">
+        <v>4</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="I31" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>141130419</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="D32" s="6">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="I32" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>141130416</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="6">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="I33" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>121130552</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="6">
+        <v>6</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="I34" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>141130390</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="I35" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>141130015</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="6">
+        <v>3</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="I36" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>121130180</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="6">
+        <v>6</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="I37" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>131130439</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="6">
+        <v>4</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="I38" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>121130468</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="6">
+        <v>6</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="I39" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>131130443</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="6">
+        <v>4</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="I40" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>121130200</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="6">
+        <v>6</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="I41" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>121130565</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="6">
+        <v>6</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="I42" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>151130094</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="I43" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>121130216</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="6">
+        <v>6</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="I44" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>121130573</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="6">
+        <v>6</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="I45" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>141130182</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="6">
+        <v>3</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="I46" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>131130315</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="6">
+        <v>4</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="I47" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>131130461</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="6">
+        <v>4</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="I48" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>131130463</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="6">
+        <v>4</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="I49" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>131130263</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="6">
+        <v>4</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="I50" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>131130470</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="6">
+        <v>4</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="I51" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>131130471</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="6">
+        <v>4</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="I52" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>131150207</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="6">
+        <v>4</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="I53" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>111130482</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="6">
+        <v>8</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="I54" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>121130602</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="6">
+        <v>6</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="I55" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>121130518</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="6">
+        <v>6</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="I56" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>131130532</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="6">
+        <v>4</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="I57" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>141130105</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="6">
+        <v>3</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="8"/>
+      <c r="I58" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>151130108</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="I59" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>151130072</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D93" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="E93" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>151130082</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D94" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="E94" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>151130052</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D95" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="E95" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>131130333</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="D96" s="1">
+        <v>4</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>121130327</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="D97" s="1">
+        <v>6</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>131130375</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="D98" s="1">
+        <v>4</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>131130474</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="D99" s="1">
+        <v>4</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>151130148</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="D100" s="1">
+        <v>4</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>141130048</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>141130049</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="D102" s="1">
+        <v>3</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>131130567</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
+      <c r="B103" s="1"/>
+      <c r="C103" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="D103" s="1">
+        <v>4</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>141130392</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="D104" s="1">
+        <v>2</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>151130073</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D105" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="E105" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>151130065</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D106" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="E106" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>131130196</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>151130115</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="D107" s="1">
+        <v>4</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>121130493</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" s="1">
+        <v>6</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>131130397</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" s="1">
+        <v>4</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>131130179</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110" s="1">
+        <v>4</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>121130638</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D111" s="1">
+        <v>6</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>121130639</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D112" s="1">
+        <v>6</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>121130657</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D113" s="1">
+        <v>6</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>151130111</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>121130493</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>131130397</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>131130179</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>121130638</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="E114" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>121130454</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D115" s="1">
+        <v>6</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>151130138</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>131130248</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D117" s="1">
+        <v>4</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>121130539</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="1">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>121130639</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C118" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D118" s="1">
+        <v>6</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>121130620</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="1">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>121130657</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C119" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D119" s="1">
+        <v>6</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>121130415</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>151130111</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>121130454</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="1">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>151130138</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>131130248</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="1">
-        <v>4</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>121130539</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="1">
-        <v>6</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>121130620</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="1">
-        <v>6</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>121130415</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="1">
-        <v>6</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="D120" s="1">
+        <v>6</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>131130277</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="1">
-        <v>4</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="D121" s="1">
+        <v>4</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>131130285</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="1">
-        <v>4</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="D122" s="1">
+        <v>4</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>141130073</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="1">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="1">
-        <v>7</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>121130001</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="4">
-        <v>7</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>141130180</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="4">
-        <v>3</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>121130311</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="4">
-        <v>6</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>141130042</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="4">
-        <v>3</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>131130429</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="4">
-        <v>4</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>131130432</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="4">
-        <v>4</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>141130045</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="4">
-        <v>3</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>121130325</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="4">
-        <v>6</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>141130117</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="4">
-        <v>3</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>141130050</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="4">
-        <v>3</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>131130501</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="4">
-        <v>4</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>121130336</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="4">
-        <v>6</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>141130053</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="4">
-        <v>3</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>141130159</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="4">
-        <v>3</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I49">
-        <v>141130148</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>131130460</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="4">
-        <v>4</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>121130532</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="4">
-        <v>6</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>111130338</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="4">
-        <v>8</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>141130061</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" s="4">
-        <v>3</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>141130064</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="4">
-        <v>3</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>141130164</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="4">
-        <v>3</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>141130067</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="4">
-        <v>3</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>121130032</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="4">
-        <v>7</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>121130038</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="4">
-        <v>7</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>141130074</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="4">
-        <v>3</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>111130269</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="4">
-        <v>8</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
-        <v>131130421</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" s="6">
-        <v>4</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
-        <v>141130006</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D62" s="6">
-        <v>3</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
-        <v>131130271</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="6">
-        <v>4</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
-        <v>141130419</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D64" s="6">
-        <v>2</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
-        <v>141130416</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D65" s="6">
-        <v>2</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
-        <v>121130552</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D66" s="6">
-        <v>6</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
-        <v>141130390</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" s="6">
-        <v>2</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
-        <v>141130015</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="6">
-        <v>3</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
-        <v>121130180</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="6">
-        <v>6</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
-        <v>131130439</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70" s="6">
-        <v>4</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
-        <v>121130468</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D71" s="6">
-        <v>6</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
-        <v>131130443</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="6">
-        <v>4</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
-        <v>121130200</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" s="6">
-        <v>6</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
-        <v>121130565</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="6">
-        <v>6</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
-        <v>151130094</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D75" s="6">
-        <v>1</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
-        <v>121130216</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D76" s="6">
-        <v>6</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
-        <v>121130573</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D77" s="6">
-        <v>6</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
-        <v>141130182</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="6">
-        <v>3</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
-        <v>131130315</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="6">
-        <v>4</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
-        <v>131130461</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D80" s="6">
-        <v>4</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
-        <v>131130463</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" s="6">
-        <v>4</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
-        <v>131130263</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D82" s="6">
-        <v>4</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
-        <v>131130470</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" s="6">
-        <v>4</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
-        <v>131130471</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D84" s="6">
-        <v>4</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
-        <v>131150207</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="6">
-        <v>4</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
-        <v>111130482</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D86" s="6">
-        <v>8</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
-        <v>121130602</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" s="6">
-        <v>6</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
-        <v>121130518</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D88" s="6">
-        <v>6</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
-        <v>131130532</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D89" s="6">
-        <v>4</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
-        <v>141130105</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D90" s="6">
-        <v>3</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
-        <v>151130108</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D91" s="6">
-        <v>1</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>117</v>
+      <c r="D123" s="1">
+        <v>3</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnToine\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnToine\Desktop\7 semestre\7sem-mat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="134">
   <si>
     <t>IGEM</t>
   </si>
@@ -826,7 +826,7 @@
   <dimension ref="A1:T123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,7 +1630,9 @@
       <c r="F30" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I30" s="8" t="s">
         <v>126</v>
       </c>
@@ -1774,7 +1776,9 @@
       <c r="F36" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="8"/>
+      <c r="G36" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I36" s="8" t="s">
         <v>126</v>
       </c>
@@ -1846,7 +1850,9 @@
       <c r="F39" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="8"/>
+      <c r="G39" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I39" s="8" t="s">
         <v>126</v>
       </c>
@@ -1990,7 +1996,9 @@
       <c r="F45" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G45" s="8"/>
+      <c r="G45" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I45" s="8" t="s">
         <v>126</v>
       </c>
@@ -2256,7 +2264,9 @@
       <c r="F56" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G56" s="8"/>
+      <c r="G56" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I56" s="8" t="s">
         <v>126</v>
       </c>

--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="133">
   <si>
     <t>IGEM</t>
   </si>
@@ -380,9 +380,6 @@
   </si>
   <si>
     <t>Burgos Vazquez Carlo Antonio</t>
-  </si>
-  <si>
-    <t>Hernandez Cruz Liliana Soledad</t>
   </si>
   <si>
     <t xml:space="preserve">Lopez Torres Karen Isabel </t>
@@ -825,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +850,7 @@
         <v>107</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>108</v>
@@ -883,16 +880,16 @@
         <v>116</v>
       </c>
       <c r="O1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="S1" s="16"/>
     </row>
@@ -922,34 +919,34 @@
         <v>102</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S2" s="17"/>
     </row>
@@ -970,12 +967,12 @@
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -986,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="13">
         <v>6</v>
@@ -995,14 +992,14 @@
         <v>7</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1026,13 +1023,13 @@
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S5">
         <v>6</v>
       </c>
       <c r="T5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1056,7 +1053,7 @@
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1067,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="13">
         <v>4</v>
@@ -1080,7 +1077,7 @@
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1104,7 +1101,7 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1124,11 +1121,11 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1152,7 +1149,7 @@
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1172,11 +1169,11 @@
         <v>7</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1200,7 +1197,7 @@
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1224,7 +1221,7 @@
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1244,11 +1241,11 @@
         <v>7</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1268,11 +1265,11 @@
         <v>7</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1292,14 +1289,14 @@
         <v>7</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>121130532</v>
       </c>
@@ -1316,14 +1313,14 @@
         <v>7</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>111130338</v>
       </c>
@@ -1340,14 +1337,14 @@
         <v>7</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>141130061</v>
       </c>
@@ -1364,14 +1361,14 @@
         <v>7</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>141130064</v>
       </c>
@@ -1392,10 +1389,10 @@
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>141130164</v>
       </c>
@@ -1412,14 +1409,14 @@
         <v>7</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>141130067</v>
       </c>
@@ -1440,10 +1437,10 @@
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>121130032</v>
       </c>
@@ -1460,14 +1457,14 @@
         <v>7</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>121130038</v>
       </c>
@@ -1488,10 +1485,10 @@
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>141130074</v>
       </c>
@@ -1512,10 +1509,10 @@
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>121130478</v>
       </c>
@@ -1532,14 +1529,14 @@
         <v>7</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>151130115</v>
       </c>
@@ -1560,10 +1557,10 @@
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>111130269</v>
       </c>
@@ -1584,10 +1581,10 @@
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>131130421</v>
       </c>
@@ -1608,10 +1605,13 @@
       </c>
       <c r="G29" s="8"/>
       <c r="I29" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>141130006</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" s="6">
         <v>3</v>
@@ -1634,10 +1634,13 @@
         <v>102</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>131130271</v>
       </c>
@@ -1658,10 +1661,13 @@
       </c>
       <c r="G31" s="8"/>
       <c r="I31" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>141130419</v>
       </c>
@@ -1682,10 +1688,13 @@
       </c>
       <c r="G32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>141130416</v>
       </c>
@@ -1706,10 +1715,13 @@
       </c>
       <c r="G33" s="8"/>
       <c r="I33" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>121130552</v>
       </c>
@@ -1717,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D34" s="6">
         <v>6</v>
@@ -1730,10 +1742,13 @@
       </c>
       <c r="G34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>141130390</v>
       </c>
@@ -1754,10 +1769,13 @@
       </c>
       <c r="G35" s="8"/>
       <c r="I35" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>141130015</v>
       </c>
@@ -1780,10 +1798,13 @@
         <v>102</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>121130180</v>
       </c>
@@ -1804,10 +1825,13 @@
       </c>
       <c r="G37" s="8"/>
       <c r="I37" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>131130439</v>
       </c>
@@ -1828,10 +1852,13 @@
       </c>
       <c r="G38" s="8"/>
       <c r="I38" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>121130468</v>
       </c>
@@ -1854,10 +1881,13 @@
         <v>102</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>131130443</v>
       </c>
@@ -1878,10 +1908,13 @@
       </c>
       <c r="G40" s="8"/>
       <c r="I40" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>121130200</v>
       </c>
@@ -1889,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="D41" s="6">
         <v>6</v>
@@ -1902,10 +1935,13 @@
       </c>
       <c r="G41" s="8"/>
       <c r="I41" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>121130565</v>
       </c>
@@ -1926,10 +1962,13 @@
       </c>
       <c r="G42" s="8"/>
       <c r="I42" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>151130094</v>
       </c>
@@ -1950,10 +1989,13 @@
       </c>
       <c r="G43" s="8"/>
       <c r="I43" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>121130216</v>
       </c>
@@ -1961,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D44" s="6">
         <v>6</v>
@@ -1974,10 +2016,13 @@
       </c>
       <c r="G44" s="8"/>
       <c r="I44" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>121130573</v>
       </c>
@@ -2000,10 +2045,13 @@
         <v>102</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>141130182</v>
       </c>
@@ -2024,10 +2072,13 @@
       </c>
       <c r="G46" s="8"/>
       <c r="I46" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>131130315</v>
       </c>
@@ -2044,14 +2095,17 @@
         <v>19</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G47" s="15"/>
       <c r="I47" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>131130461</v>
       </c>
@@ -2072,7 +2126,10 @@
       </c>
       <c r="G48" s="8"/>
       <c r="I48" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2096,9 +2153,11 @@
       </c>
       <c r="G49" s="8"/>
       <c r="I49" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J49" s="8"/>
+        <v>125</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="K49" s="8"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2122,7 +2181,10 @@
       </c>
       <c r="G50" s="8"/>
       <c r="I50" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2146,7 +2208,10 @@
       </c>
       <c r="G51" s="8"/>
       <c r="I51" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2170,7 +2235,10 @@
       </c>
       <c r="G52" s="8"/>
       <c r="I52" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2194,7 +2262,10 @@
       </c>
       <c r="G53" s="8"/>
       <c r="I53" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2218,7 +2289,10 @@
       </c>
       <c r="G54" s="8"/>
       <c r="I54" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2242,7 +2316,10 @@
       </c>
       <c r="G55" s="8"/>
       <c r="I55" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2268,7 +2345,10 @@
         <v>102</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2292,7 +2372,10 @@
       </c>
       <c r="G57" s="8"/>
       <c r="I57" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2316,7 +2399,10 @@
       </c>
       <c r="G58" s="8"/>
       <c r="I58" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2340,7 +2426,10 @@
       </c>
       <c r="G59" s="8"/>
       <c r="I59" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">

--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="134">
   <si>
     <t>IGEM</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>REPROBADO</t>
+  </si>
+  <si>
+    <t>Ramirez Rodriguez Augusto Fabian</t>
   </si>
 </sst>
 </file>
@@ -822,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,6 +977,9 @@
       <c r="I3" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="J3" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -998,6 +1004,9 @@
       <c r="I4" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J4" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="S4" t="s">
         <v>120</v>
       </c>
@@ -1025,6 +1034,9 @@
       <c r="I5" s="8" t="s">
         <v>131</v>
       </c>
+      <c r="J5" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="S5">
         <v>6</v>
       </c>
@@ -1055,6 +1067,9 @@
       <c r="I6" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J6" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -1079,6 +1094,9 @@
       <c r="I7" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J7" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -1103,6 +1121,9 @@
       <c r="I8" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J8" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -1127,6 +1148,9 @@
       <c r="I9" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J9" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -1151,6 +1175,9 @@
       <c r="I10" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J10" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -1175,6 +1202,9 @@
       <c r="I11" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J11" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -1199,6 +1229,9 @@
       <c r="I12" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J12" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -1223,6 +1256,9 @@
       <c r="I13" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J13" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -1247,6 +1283,9 @@
       <c r="I14" s="8" t="s">
         <v>131</v>
       </c>
+      <c r="J14" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -1271,6 +1310,9 @@
       <c r="I15" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J15" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -1295,6 +1337,9 @@
       <c r="I16" s="8" t="s">
         <v>131</v>
       </c>
+      <c r="J16" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -1319,6 +1364,9 @@
       <c r="I17" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J17" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -1343,6 +1391,9 @@
       <c r="I18" s="8" t="s">
         <v>131</v>
       </c>
+      <c r="J18" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -1367,6 +1418,9 @@
       <c r="I19" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J19" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
@@ -1391,6 +1445,9 @@
       <c r="I20" s="8" t="s">
         <v>131</v>
       </c>
+      <c r="J20" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -1415,6 +1472,9 @@
       <c r="I21" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J21" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -1424,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="D22" s="13">
         <v>3</v>
@@ -1437,6 +1497,9 @@
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1463,6 +1526,9 @@
       <c r="I23" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J23" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -1487,6 +1553,9 @@
       <c r="I24" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J24" s="9" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -1511,6 +1580,9 @@
       <c r="I25" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J25" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -1535,6 +1607,9 @@
       <c r="I26" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J26" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
@@ -1559,6 +1634,9 @@
       <c r="I27" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="J27" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
@@ -1581,6 +1659,9 @@
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>125</v>
       </c>
     </row>

--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="135">
   <si>
     <t>IGEM</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>Ramirez Rodriguez Augusto Fabian</t>
+  </si>
+  <si>
+    <t>recuperacion</t>
   </si>
 </sst>
 </file>
@@ -825,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,7 +1344,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>121130532</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>111130338</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>141130061</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>141130064</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>141130164</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>141130067</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>121130032</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>121130038</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>141130074</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>121130478</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>151130115</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>111130269</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>131130421</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>141130006</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>131130271</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>141130419</v>
       </c>
@@ -1767,15 +1770,20 @@
       <c r="F32" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="I32" s="8" t="s">
         <v>125</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>141130416</v>
       </c>
@@ -1794,15 +1802,20 @@
       <c r="F33" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="8"/>
+      <c r="G33" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I33" s="8" t="s">
         <v>125</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>121130552</v>
       </c>
@@ -1829,7 +1842,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>141130390</v>
       </c>
@@ -1856,7 +1869,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>141130015</v>
       </c>
@@ -1885,7 +1898,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>121130180</v>
       </c>
@@ -1912,7 +1925,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>131130439</v>
       </c>
@@ -1931,15 +1944,20 @@
       <c r="F38" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="8"/>
+      <c r="G38" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I38" s="8" t="s">
         <v>125</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>121130468</v>
       </c>
@@ -1968,7 +1986,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>131130443</v>
       </c>
@@ -1987,15 +2005,20 @@
       <c r="F40" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="8"/>
+      <c r="G40" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I40" s="8" t="s">
         <v>125</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>121130200</v>
       </c>
@@ -2022,7 +2045,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>121130565</v>
       </c>
@@ -2041,15 +2064,20 @@
       <c r="F42" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G42" s="8"/>
+      <c r="G42" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I42" s="8" t="s">
         <v>125</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>151130094</v>
       </c>
@@ -2076,7 +2104,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>121130216</v>
       </c>
@@ -2095,15 +2123,20 @@
       <c r="F44" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="8"/>
+      <c r="G44" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I44" s="8" t="s">
         <v>125</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>121130573</v>
       </c>
@@ -2132,7 +2165,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>141130182</v>
       </c>
@@ -2151,15 +2184,20 @@
       <c r="F46" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G46" s="8"/>
+      <c r="G46" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I46" s="8" t="s">
         <v>125</v>
       </c>
       <c r="J46" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>131130315</v>
       </c>
@@ -2186,7 +2224,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>131130461</v>
       </c>
@@ -2205,7 +2243,9 @@
       <c r="F48" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G48" s="8"/>
+      <c r="G48" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="I48" s="8" t="s">
         <v>125</v>
       </c>
@@ -2260,12 +2300,17 @@
       <c r="F50" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="8"/>
+      <c r="G50" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I50" s="8" t="s">
         <v>125</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>131</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2287,7 +2332,9 @@
       <c r="F51" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G51" s="8"/>
+      <c r="G51" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="I51" s="8" t="s">
         <v>125</v>
       </c>
@@ -2314,12 +2361,17 @@
       <c r="F52" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G52" s="8"/>
+      <c r="G52" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="I52" s="8" t="s">
         <v>125</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>131</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2451,11 +2503,16 @@
       <c r="F57" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G57" s="8"/>
+      <c r="G57" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I57" s="8" t="s">
         <v>125</v>
       </c>
       <c r="J57" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K57" s="9" t="s">
         <v>125</v>
       </c>
     </row>

--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="135">
   <si>
     <t>IGEM</t>
   </si>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +975,9 @@
       <c r="F3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="H3" s="15"/>
       <c r="I3" s="9" t="s">
         <v>131</v>
@@ -1003,6 +1005,7 @@
       <c r="F4" s="8" t="s">
         <v>132</v>
       </c>
+      <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="8" t="s">
         <v>125</v>
@@ -1033,6 +1036,7 @@
       <c r="F5" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="G5" s="15"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
         <v>131</v>
@@ -1066,6 +1070,7 @@
       <c r="F6" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="G6" s="15"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
         <v>125</v>
@@ -1093,6 +1098,7 @@
       <c r="F7" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="G7" s="15"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
         <v>125</v>
@@ -1120,6 +1126,7 @@
       <c r="F8" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="G8" s="15"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
         <v>125</v>
@@ -1147,6 +1154,7 @@
       <c r="F9" s="8" t="s">
         <v>132</v>
       </c>
+      <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="8" t="s">
         <v>125</v>
@@ -1174,6 +1182,7 @@
       <c r="F10" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="G10" s="15"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="s">
         <v>125</v>
@@ -1201,6 +1210,7 @@
       <c r="F11" s="8" t="s">
         <v>132</v>
       </c>
+      <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="8" t="s">
         <v>125</v>
@@ -1228,6 +1238,7 @@
       <c r="F12" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="G12" s="15"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
         <v>125</v>
@@ -1255,6 +1266,7 @@
       <c r="F13" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="8" t="s">
         <v>125</v>
@@ -1282,6 +1294,7 @@
       <c r="F14" s="8" t="s">
         <v>132</v>
       </c>
+      <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="8" t="s">
         <v>131</v>
@@ -1309,6 +1322,7 @@
       <c r="F15" s="8" t="s">
         <v>132</v>
       </c>
+      <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="8" t="s">
         <v>125</v>
@@ -1336,6 +1350,7 @@
       <c r="F16" s="8" t="s">
         <v>132</v>
       </c>
+      <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="8" t="s">
         <v>131</v>
@@ -1363,6 +1378,7 @@
       <c r="F17" s="8" t="s">
         <v>132</v>
       </c>
+      <c r="G17" s="15"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="s">
         <v>125</v>
@@ -1390,6 +1406,7 @@
       <c r="F18" s="8" t="s">
         <v>132</v>
       </c>
+      <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="8" t="s">
         <v>131</v>
@@ -1417,6 +1434,7 @@
       <c r="F19" s="8" t="s">
         <v>132</v>
       </c>
+      <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="8" t="s">
         <v>125</v>
@@ -1444,6 +1462,7 @@
       <c r="F20" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="G20" s="15"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="s">
         <v>131</v>
@@ -1471,6 +1490,7 @@
       <c r="F21" s="8" t="s">
         <v>132</v>
       </c>
+      <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="8" t="s">
         <v>125</v>
@@ -1498,6 +1518,7 @@
       <c r="F22" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="G22" s="15"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
         <v>125</v>
@@ -1525,6 +1546,9 @@
       <c r="F23" s="8" t="s">
         <v>132</v>
       </c>
+      <c r="G23" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="H23" s="15"/>
       <c r="I23" s="8" t="s">
         <v>125</v>
@@ -1552,6 +1576,7 @@
       <c r="F24" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="G24" s="15"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8" t="s">
         <v>125</v>
@@ -1579,6 +1604,7 @@
       <c r="F25" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="G25" s="15"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8" t="s">
         <v>125</v>
@@ -1606,6 +1632,7 @@
       <c r="F26" s="8" t="s">
         <v>132</v>
       </c>
+      <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="8" t="s">
         <v>125</v>
@@ -1633,6 +1660,7 @@
       <c r="F27" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="G27" s="15"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8" t="s">
         <v>125</v>
@@ -1660,6 +1688,9 @@
       <c r="F28" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="G28" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="H28" s="15"/>
       <c r="I28" s="8" t="s">
         <v>125</v>
@@ -2096,7 +2127,9 @@
       <c r="F43" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G43" s="8"/>
+      <c r="G43" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I43" s="8" t="s">
         <v>125</v>
       </c>
@@ -2562,7 +2595,9 @@
       <c r="F59" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G59" s="8"/>
+      <c r="G59" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I59" s="8" t="s">
         <v>125</v>
       </c>

--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="135">
   <si>
     <t>IGEM</t>
   </si>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,8 +1036,12 @@
       <c r="F5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I5" s="8" t="s">
         <v>131</v>
       </c>
@@ -1518,8 +1522,12 @@
       <c r="F22" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="8"/>
+      <c r="G22" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I22" s="8" t="s">
         <v>125</v>
       </c>

--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="136">
   <si>
     <t>IGEM</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>recuperacion</t>
+  </si>
+  <si>
+    <t>examen</t>
   </si>
 </sst>
 </file>
@@ -828,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,8 +1133,12 @@
       <c r="F8" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="8"/>
+      <c r="G8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I8" s="8" t="s">
         <v>125</v>
       </c>
@@ -1158,8 +1165,12 @@
       <c r="F9" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="I9" s="8" t="s">
         <v>125</v>
       </c>
@@ -1382,7 +1393,9 @@
       <c r="F17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="s">
         <v>125</v>
@@ -1756,6 +1769,9 @@
       <c r="G30" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="H30" t="s">
+        <v>102</v>
+      </c>
       <c r="I30" s="8" t="s">
         <v>125</v>
       </c>
@@ -1810,7 +1826,10 @@
         <v>102</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>134</v>
+        <v>102</v>
+      </c>
+      <c r="H32" t="s">
+        <v>102</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>125</v>
@@ -1844,6 +1863,9 @@
       <c r="G33" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="H33" t="s">
+        <v>102</v>
+      </c>
       <c r="I33" s="8" t="s">
         <v>125</v>
       </c>
@@ -1873,7 +1895,9 @@
       <c r="F34" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="8"/>
+      <c r="G34" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="I34" s="8" t="s">
         <v>131</v>
       </c>
@@ -1900,7 +1924,12 @@
       <c r="F35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" t="s">
+        <v>102</v>
+      </c>
       <c r="I35" s="8" t="s">
         <v>125</v>
       </c>
@@ -1930,6 +1959,9 @@
       <c r="G36" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="H36" t="s">
+        <v>102</v>
+      </c>
       <c r="I36" s="8" t="s">
         <v>125</v>
       </c>
@@ -1956,7 +1988,9 @@
       <c r="F37" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="I37" s="8" t="s">
         <v>125</v>
       </c>
@@ -1986,6 +2020,9 @@
       <c r="G38" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="H38" t="s">
+        <v>102</v>
+      </c>
       <c r="I38" s="8" t="s">
         <v>125</v>
       </c>
@@ -2018,6 +2055,9 @@
       <c r="G39" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="H39" t="s">
+        <v>102</v>
+      </c>
       <c r="I39" s="8" t="s">
         <v>125</v>
       </c>
@@ -2047,6 +2087,9 @@
       <c r="G40" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="H40" t="s">
+        <v>102</v>
+      </c>
       <c r="I40" s="8" t="s">
         <v>125</v>
       </c>
@@ -2076,7 +2119,9 @@
       <c r="F41" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G41" s="8"/>
+      <c r="G41" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="I41" s="8" t="s">
         <v>125</v>
       </c>
@@ -2106,6 +2151,9 @@
       <c r="G42" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="H42" t="s">
+        <v>102</v>
+      </c>
       <c r="I42" s="8" t="s">
         <v>125</v>
       </c>
@@ -2138,6 +2186,9 @@
       <c r="G43" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="H43" t="s">
+        <v>135</v>
+      </c>
       <c r="I43" s="8" t="s">
         <v>125</v>
       </c>
@@ -2167,6 +2218,9 @@
       <c r="G44" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="H44" t="s">
+        <v>102</v>
+      </c>
       <c r="I44" s="8" t="s">
         <v>125</v>
       </c>
@@ -2199,6 +2253,9 @@
       <c r="G45" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="H45" t="s">
+        <v>102</v>
+      </c>
       <c r="I45" s="8" t="s">
         <v>125</v>
       </c>
@@ -2228,6 +2285,9 @@
       <c r="G46" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="H46" t="s">
+        <v>135</v>
+      </c>
       <c r="I46" s="8" t="s">
         <v>125</v>
       </c>
@@ -2287,6 +2347,9 @@
       <c r="G48" s="8" t="s">
         <v>134</v>
       </c>
+      <c r="H48" t="s">
+        <v>135</v>
+      </c>
       <c r="I48" s="8" t="s">
         <v>125</v>
       </c>
@@ -2313,7 +2376,12 @@
       <c r="F49" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G49" s="8"/>
+      <c r="G49" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H49" t="s">
+        <v>102</v>
+      </c>
       <c r="I49" s="8" t="s">
         <v>125</v>
       </c>
@@ -2344,6 +2412,9 @@
       <c r="G50" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="H50" t="s">
+        <v>102</v>
+      </c>
       <c r="I50" s="8" t="s">
         <v>125</v>
       </c>
@@ -2374,7 +2445,10 @@
         <v>102</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>134</v>
+        <v>102</v>
+      </c>
+      <c r="H51" t="s">
+        <v>102</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>125</v>
@@ -2405,6 +2479,9 @@
       <c r="G52" s="8" t="s">
         <v>134</v>
       </c>
+      <c r="H52" t="s">
+        <v>135</v>
+      </c>
       <c r="I52" s="8" t="s">
         <v>125</v>
       </c>
@@ -2434,7 +2511,12 @@
       <c r="F53" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G53" s="8"/>
+      <c r="G53" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H53" t="s">
+        <v>102</v>
+      </c>
       <c r="I53" s="8" t="s">
         <v>131</v>
       </c>
@@ -2461,7 +2543,9 @@
       <c r="F54" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G54" s="8"/>
+      <c r="G54" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="I54" s="8" t="s">
         <v>131</v>
       </c>
@@ -2488,7 +2572,9 @@
       <c r="F55" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G55" s="8"/>
+      <c r="G55" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="I55" s="8" t="s">
         <v>125</v>
       </c>
@@ -2518,6 +2604,9 @@
       <c r="G56" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="H56" t="s">
+        <v>102</v>
+      </c>
       <c r="I56" s="8" t="s">
         <v>125</v>
       </c>
@@ -2547,6 +2636,9 @@
       <c r="G57" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="H57" t="s">
+        <v>135</v>
+      </c>
       <c r="I57" s="8" t="s">
         <v>125</v>
       </c>
@@ -2576,7 +2668,9 @@
       <c r="F58" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G58" s="8"/>
+      <c r="G58" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="I58" s="8" t="s">
         <v>131</v>
       </c>
@@ -2605,6 +2699,9 @@
       </c>
       <c r="G59" s="8" t="s">
         <v>102</v>
+      </c>
+      <c r="H59" t="s">
+        <v>135</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>125</v>

--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="136">
   <si>
     <t>IGEM</t>
   </si>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1008,9 @@
       <c r="F4" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="H4" s="15"/>
       <c r="I4" s="8" t="s">
         <v>125</v>
@@ -1423,7 +1425,9 @@
       <c r="F18" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="H18" s="15"/>
       <c r="I18" s="8" t="s">
         <v>131</v>
@@ -1449,9 +1453,11 @@
         <v>7</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="15"/>
+        <v>102</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="H19" s="15"/>
       <c r="I19" s="8" t="s">
         <v>125</v>
@@ -1625,8 +1631,12 @@
       <c r="F25" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="8"/>
+      <c r="G25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I25" s="8" t="s">
         <v>125</v>
       </c>
@@ -1712,7 +1722,9 @@
       <c r="G28" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="15"/>
+      <c r="H28" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="I28" s="8" t="s">
         <v>125</v>
       </c>
@@ -1896,7 +1908,7 @@
         <v>102</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>131</v>
@@ -2120,7 +2132,10 @@
         <v>102</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>135</v>
+        <v>102</v>
+      </c>
+      <c r="H41" t="s">
+        <v>102</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>125</v>
@@ -2637,7 +2652,7 @@
         <v>102</v>
       </c>
       <c r="H57" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>125</v>

--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="136">
   <si>
     <t>IGEM</t>
   </si>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,6 +988,30 @@
       <c r="J3" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="K3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -1006,16 +1030,42 @@
         <v>7</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="I4" s="8" t="s">
         <v>125</v>
       </c>
       <c r="J4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>125</v>
       </c>
       <c r="S4" t="s">
@@ -1053,6 +1103,30 @@
       <c r="J5" s="9" t="s">
         <v>125</v>
       </c>
+      <c r="K5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="S5">
         <v>6</v>
       </c>
@@ -1087,6 +1161,30 @@
       <c r="J6" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="K6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -1115,6 +1213,30 @@
       <c r="J7" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="K7" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -1147,6 +1269,30 @@
       <c r="J8" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="K8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -1179,6 +1325,30 @@
       <c r="J9" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="K9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -1207,6 +1377,30 @@
       <c r="J10" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="K10" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -1235,6 +1429,30 @@
       <c r="J11" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="K11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -1263,6 +1481,30 @@
       <c r="J12" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="K12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -1291,6 +1533,30 @@
       <c r="J13" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="K13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -1319,6 +1585,30 @@
       <c r="J14" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="K14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -1347,6 +1637,30 @@
       <c r="J15" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="K15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -1375,8 +1689,32 @@
       <c r="J16" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>121130532</v>
       </c>
@@ -1405,8 +1743,32 @@
       <c r="J17" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>111130338</v>
       </c>
@@ -1435,8 +1797,32 @@
       <c r="J18" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>141130061</v>
       </c>
@@ -1458,15 +1844,41 @@
       <c r="G19" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="I19" s="8" t="s">
         <v>125</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>141130064</v>
       </c>
@@ -1493,8 +1905,32 @@
       <c r="J20" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>141130164</v>
       </c>
@@ -1521,8 +1957,32 @@
       <c r="J21" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>141130067</v>
       </c>
@@ -1553,8 +2013,32 @@
       <c r="J22" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>121130032</v>
       </c>
@@ -1583,8 +2067,32 @@
       <c r="J23" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>121130038</v>
       </c>
@@ -1603,16 +2111,44 @@
       <c r="F24" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="8"/>
+      <c r="G24" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I24" s="8" t="s">
         <v>125</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>141130074</v>
       </c>
@@ -1643,8 +2179,32 @@
       <c r="J25" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>121130478</v>
       </c>
@@ -1671,8 +2231,32 @@
       <c r="J26" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>151130115</v>
       </c>
@@ -1699,8 +2283,32 @@
       <c r="J27" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>111130269</v>
       </c>
@@ -1731,8 +2339,32 @@
       <c r="J28" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>131130421</v>
       </c>
@@ -1759,7 +2391,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>141130006</v>
       </c>
@@ -1790,8 +2422,32 @@
       <c r="J30" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>131130271</v>
       </c>
@@ -1818,7 +2474,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>141130419</v>
       </c>
@@ -1852,8 +2508,29 @@
       <c r="K32" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>141130416</v>
       </c>
@@ -1887,8 +2564,29 @@
       <c r="K33" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>121130552</v>
       </c>
@@ -1917,7 +2615,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>141130390</v>
       </c>
@@ -1948,8 +2646,32 @@
       <c r="J35" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>141130015</v>
       </c>
@@ -1980,8 +2702,32 @@
       <c r="J36" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>121130180</v>
       </c>
@@ -2010,7 +2756,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>131130439</v>
       </c>
@@ -2044,8 +2790,29 @@
       <c r="K38" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R38" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>121130468</v>
       </c>
@@ -2076,8 +2843,32 @@
       <c r="J39" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R39" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>131130443</v>
       </c>
@@ -2111,8 +2902,29 @@
       <c r="K40" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R40" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>121130200</v>
       </c>
@@ -2143,8 +2955,32 @@
       <c r="J41" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>121130565</v>
       </c>
@@ -2178,8 +3014,29 @@
       <c r="K42" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R42" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>151130094</v>
       </c>
@@ -2211,7 +3068,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>121130216</v>
       </c>
@@ -2245,8 +3102,29 @@
       <c r="K44" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R44" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>121130573</v>
       </c>
@@ -2277,8 +3155,32 @@
       <c r="J45" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R45" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>141130182</v>
       </c>
@@ -2313,7 +3215,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>131130315</v>
       </c>
@@ -2340,7 +3242,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>131130461</v>
       </c>
@@ -2372,7 +3274,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>131130463</v>
       </c>
@@ -2403,9 +3305,32 @@
       <c r="J49" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K49" s="8"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q49" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R49" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>131130263</v>
       </c>
@@ -2439,8 +3364,29 @@
       <c r="K50" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q50" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R50" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>131130470</v>
       </c>
@@ -2471,8 +3417,32 @@
       <c r="J51" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R51" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>131130471</v>
       </c>
@@ -2507,7 +3477,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>131150207</v>
       </c>
@@ -2538,8 +3508,32 @@
       <c r="J53" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R53" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>111130482</v>
       </c>
@@ -2559,7 +3553,10 @@
         <v>102</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>135</v>
+        <v>102</v>
+      </c>
+      <c r="H54" t="s">
+        <v>102</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>131</v>
@@ -2567,8 +3564,32 @@
       <c r="J54" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P54" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q54" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R54" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>121130602</v>
       </c>
@@ -2597,7 +3618,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>121130518</v>
       </c>
@@ -2628,8 +3649,32 @@
       <c r="J56" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q56" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R56" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>131130532</v>
       </c>
@@ -2663,8 +3708,29 @@
       <c r="K57" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q57" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R57" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>141130105</v>
       </c>
@@ -2693,7 +3759,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>151130108</v>
       </c>

--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="136">
   <si>
     <t>IGEM</t>
   </si>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,41 +976,43 @@
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="15"/>
+        <v>102</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="I3" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1153,37 +1155,41 @@
       <c r="F6" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="8"/>
+      <c r="G6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I6" s="8" t="s">
         <v>125</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1205,37 +1211,41 @@
       <c r="F7" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="8"/>
+      <c r="G7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I7" s="8" t="s">
         <v>125</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1785,7 +1795,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>102</v>
@@ -3262,16 +3272,40 @@
         <v>102</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="H48" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>125</v>
       </c>
       <c r="J48" s="9" t="s">
         <v>131</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R48" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -3462,10 +3496,10 @@
         <v>102</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="H52" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>125</v>
@@ -3474,6 +3508,27 @@
         <v>131</v>
       </c>
       <c r="K52" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P52" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R52" s="9" t="s">
         <v>125</v>
       </c>
     </row>

--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="136">
   <si>
     <t>IGEM</t>
   </si>
@@ -832,7 +832,7 @@
   <dimension ref="A1:T123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1321,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>102</v>
@@ -1483,8 +1483,12 @@
       <c r="F12" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="8"/>
+      <c r="G12" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I12" s="8" t="s">
         <v>125</v>
       </c>
@@ -1800,7 +1804,9 @@
       <c r="G18" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="I18" s="8" t="s">
         <v>131</v>
       </c>
@@ -2231,10 +2237,14 @@
         <v>7</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+        <v>102</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I26" s="8" t="s">
         <v>125</v>
       </c>
@@ -3244,7 +3254,12 @@
       <c r="F47" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G47" s="15"/>
+      <c r="G47" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" t="s">
+        <v>131</v>
+      </c>
       <c r="I47" s="8" t="s">
         <v>131</v>
       </c>

--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="136">
   <si>
     <t>IGEM</t>
   </si>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1379,9 @@
       <c r="F10" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="s">
         <v>125</v>
@@ -3223,7 +3225,7 @@
         <v>102</v>
       </c>
       <c r="H46" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>125</v>
@@ -3861,6 +3863,32 @@
         <v>125</v>
       </c>
     </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>131130474</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="1">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>151130072</v>
@@ -3960,23 +3988,6 @@
         <v>4</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>131130474</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D99" s="1">
-        <v>4</v>
-      </c>
-      <c r="E99" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3081,7 +3081,7 @@
         <v>102</v>
       </c>
       <c r="H43" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>125</v>
